--- a/docs/Arrival to Terminal Mapping.xlsx
+++ b/docs/Arrival to Terminal Mapping.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26122"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25596" windowHeight="14616" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="140000"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Order Arrived</t>
   </si>
@@ -27,46 +28,10 @@
     <t>Terminal Assigned</t>
   </si>
   <si>
-    <t>Pilot 1</t>
+    <t>Participant #</t>
   </si>
   <si>
-    <t>Pilot 2</t>
-  </si>
-  <si>
-    <t>Session 1</t>
-  </si>
-  <si>
-    <t>Session 2</t>
-  </si>
-  <si>
-    <t>Session 3</t>
-  </si>
-  <si>
-    <t>Session 4</t>
-  </si>
-  <si>
-    <t>Session 5</t>
-  </si>
-  <si>
-    <t>Session 6</t>
-  </si>
-  <si>
-    <t>Session 7</t>
-  </si>
-  <si>
-    <t>Session 8</t>
-  </si>
-  <si>
-    <t>Session 9</t>
-  </si>
-  <si>
-    <t>Session 10</t>
-  </si>
-  <si>
-    <t>Session 11</t>
-  </si>
-  <si>
-    <t>Session 12</t>
+    <t>Experimenter C</t>
   </si>
 </sst>
 </file>
@@ -123,17 +88,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -459,363 +435,162 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:R14"/>
+  <dimension ref="A2:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N29" sqref="N29"/>
+    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="1.5" customWidth="1"/>
-    <col min="4" max="5" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="1.83203125" customWidth="1"/>
-    <col min="7" max="15" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="10.83203125" style="3"/>
+    <col min="1" max="1" width="12.296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="10.796875" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:18" ht="20" customHeight="1">
+    <row r="2" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" ht="20" customHeight="1">
+    </row>
+    <row r="3" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3" s="2">
         <v>1</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-    </row>
-    <row r="4" spans="1:18" ht="20" customHeight="1">
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>2</v>
       </c>
       <c r="B4" s="2">
         <v>6</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-    </row>
-    <row r="5" spans="1:18" ht="20" customHeight="1">
+      <c r="C4" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>3</v>
       </c>
       <c r="B5" s="2">
         <v>11</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-    </row>
-    <row r="6" spans="1:18" ht="20" customHeight="1">
+      <c r="C5" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>4</v>
       </c>
       <c r="B6" s="2">
         <v>16</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-    </row>
-    <row r="7" spans="1:18" ht="20" customHeight="1">
+      <c r="C6" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>5</v>
       </c>
       <c r="B7" s="2">
         <v>3</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
-    </row>
-    <row r="8" spans="1:18" ht="20" customHeight="1">
+      <c r="C7" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>6</v>
       </c>
       <c r="B8" s="2">
         <v>8</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
-    </row>
-    <row r="9" spans="1:18" ht="20" customHeight="1">
+      <c r="C8" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>7</v>
       </c>
       <c r="B9" s="2">
         <v>23</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
-    </row>
-    <row r="10" spans="1:18" ht="20" customHeight="1">
+      <c r="C9" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>8</v>
       </c>
       <c r="B10" s="2">
         <v>5</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
-    </row>
-    <row r="11" spans="1:18" ht="20" customHeight="1">
+      <c r="C10" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>9</v>
       </c>
       <c r="B11" s="2">
         <v>24</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
-    </row>
-    <row r="12" spans="1:18" ht="20" customHeight="1">
+      <c r="C11" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>10</v>
       </c>
       <c r="B12" s="2">
         <v>13</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
-    </row>
-    <row r="13" spans="1:18" ht="20" customHeight="1">
+      <c r="C12" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>11</v>
       </c>
       <c r="B13" s="2">
         <v>18</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
-    </row>
-    <row r="14" spans="1:18" ht="20" customHeight="1">
+      <c r="C13" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>12</v>
       </c>
       <c r="B14" s="2">
         <v>21</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="1"/>
+      <c r="C14" s="1">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -825,4 +600,149 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:K14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:K7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="7" max="7" width="13.8984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:11" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G1" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="2:11" ht="45" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:11" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="4">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4">
+        <v>2</v>
+      </c>
+      <c r="D3" s="4">
+        <v>3</v>
+      </c>
+      <c r="E3" s="4">
+        <v>4</v>
+      </c>
+      <c r="F3" s="4">
+        <v>5</v>
+      </c>
+      <c r="G3" s="5"/>
+      <c r="H3" s="4">
+        <v>6</v>
+      </c>
+      <c r="I3" s="4">
+        <v>7</v>
+      </c>
+      <c r="J3" s="4">
+        <v>8</v>
+      </c>
+      <c r="K3" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+    </row>
+    <row r="5" spans="2:11" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="4">
+        <v>10</v>
+      </c>
+      <c r="C5" s="4">
+        <v>11</v>
+      </c>
+      <c r="D5" s="4">
+        <v>12</v>
+      </c>
+      <c r="E5" s="4">
+        <v>13</v>
+      </c>
+      <c r="F5" s="4">
+        <v>14</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="4">
+        <v>15</v>
+      </c>
+      <c r="I5" s="4">
+        <v>16</v>
+      </c>
+      <c r="J5" s="4">
+        <v>17</v>
+      </c>
+      <c r="K5" s="4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+    </row>
+    <row r="7" spans="2:11" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="4">
+        <v>19</v>
+      </c>
+      <c r="C7" s="4">
+        <v>20</v>
+      </c>
+      <c r="D7" s="4">
+        <v>21</v>
+      </c>
+      <c r="E7" s="4">
+        <v>22</v>
+      </c>
+      <c r="F7" s="4">
+        <v>23</v>
+      </c>
+      <c r="G7" s="5"/>
+      <c r="H7" s="4">
+        <v>24</v>
+      </c>
+      <c r="I7" s="4">
+        <v>25</v>
+      </c>
+      <c r="J7" s="4">
+        <v>26</v>
+      </c>
+      <c r="K7" s="4">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" ht="45" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="2:11" ht="45" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="2:11" ht="45" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="2:11" ht="45" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="2:11" ht="45" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="2:11" ht="45" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="2:11" ht="45" customHeight="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>